--- a/Data Sources/MANUAL/RenHeatSize.xlsx
+++ b/Data Sources/MANUAL/RenHeatSize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E612200B-0516-429A-BC96-9537676F3370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B27B81-F288-47C8-A3AB-3759535B7475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3750" yWindow="3825" windowWidth="8190" windowHeight="5295" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -123,11 +115,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
@@ -451,21 +442,21 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,271 +482,281 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.4</v>
+        <v>0.76</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.37</v>
       </c>
       <c r="D2">
-        <v>2450</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.47</v>
+        <v>2313</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.44</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1">
         <v>1E-3</v>
       </c>
       <c r="H2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.42</v>
+        <v>0.89</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.44</v>
       </c>
       <c r="D3">
-        <v>1511</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.28999999999999998</v>
+        <v>1544</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.3</v>
       </c>
       <c r="F3">
-        <v>3650</v>
+        <v>3840</v>
       </c>
       <c r="G3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.18</v>
+        <v>0.38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.19</v>
       </c>
       <c r="D4">
-        <v>634</v>
-      </c>
-      <c r="E4" s="1">
+        <v>632</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.12</v>
       </c>
       <c r="F4">
-        <v>21780</v>
+        <v>26510</v>
       </c>
       <c r="G4" s="1">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="H4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>624</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.12</v>
+        <v>716</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9.8999999999999999E-4</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5230</v>
-      </c>
-      <c r="E7" s="5">
+        <v>5205</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>25550</v>
-      </c>
-      <c r="G7" s="5">
+        <v>30450</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.77800000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="C8" s="1">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D8">
-        <v>2188</v>
+        <v>2337</v>
       </c>
       <c r="E8" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.83499999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="C9" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D9">
-        <v>1221</v>
+        <v>1463</v>
       </c>
       <c r="E9" s="1">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F9">
-        <v>3620</v>
+        <v>3780</v>
       </c>
       <c r="G9" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.32200000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="C10" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D10">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E10" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F10">
-        <v>19290</v>
+        <v>23830</v>
       </c>
       <c r="G10" s="1">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="H10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E11" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>1E-4</v>
       </c>
       <c r="H11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>1E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.01</v>
+      <c r="E12" s="2">
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -764,35 +765,33 @@
         <v>1E-4</v>
       </c>
       <c r="H12">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="C13:G13" si="0">SUM(D8:D12)</f>
-        <v>4569</v>
-      </c>
-      <c r="E13" s="5">
+        <v>4966</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>23020</v>
-      </c>
-      <c r="G13" s="5">
+        <v>27720</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/RenHeatSize.xlsx
+++ b/Data Sources/MANUAL/RenHeatSize.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B27B81-F288-47C8-A3AB-3759535B7475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274DAF6-CF67-4904-BBBE-8FE5BBACF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>Technology</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Renewable heat capacity (GW)</t>
   </si>
@@ -45,28 +42,28 @@
     <t>% Number of installations</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>% Renewable heat capacity</t>
   </si>
   <si>
-    <t>Large (&gt;1 MW)</t>
-  </si>
-  <si>
-    <t>Small to medium (&gt;45 kW - &lt;1 MW)</t>
-  </si>
-  <si>
-    <t>Micro (≤45 kW)</t>
-  </si>
-  <si>
     <t>Biomethane</t>
   </si>
   <si>
-    <t>Unknown</t>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Large (&lt;= 1 MW)</t>
+  </si>
+  <si>
+    <t>Small to medium (&gt;45 MW - &lt;1 MW)</t>
+  </si>
+  <si>
+    <t>Micro (&lt;= 45 KW)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -110,24 +107,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,359 +432,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A88EC0-75A4-4313-AECB-883EFC57A2DA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.76</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.37</v>
+        <v>0.97633058134596129</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2/$B$6</f>
+        <v>0.4260559284693739</v>
       </c>
       <c r="D2">
-        <v>2313</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.44</v>
+        <v>2391.9015543761643</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/$D$6</f>
+        <v>0.42472418996677325</v>
       </c>
       <c r="F2">
-        <v>90</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1E-3</v>
+        <v>113</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/$F$6</f>
+        <v>2.6197431260722398E-3</v>
       </c>
       <c r="H2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.89</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.44</v>
+        <v>0.90302596914877009</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/$B$6</f>
+        <v>0.39406690220359242</v>
       </c>
       <c r="D3">
-        <v>1544</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.3</v>
+        <v>1568.9128128976406</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3/$D$6</f>
+        <v>0.27858806411463505</v>
       </c>
       <c r="F3">
-        <v>3840</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.13</v>
+        <v>3689</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F3/$F$6</f>
+        <v>8.5524180460889318E-2</v>
       </c>
       <c r="H3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.38</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.19</v>
+        <v>0.41219842176788946</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B4/$B$6</f>
+        <v>0.17987716932703371</v>
       </c>
       <c r="D4">
-        <v>632</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.12</v>
+        <v>750.8203580628109</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4/$D$6</f>
+        <v>0.13332136007243017</v>
       </c>
       <c r="F4">
-        <v>26510</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.87</v>
+        <v>39314</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4/$F$6</f>
+        <v>0.91143877219826586</v>
       </c>
       <c r="H4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
+        <f>B5/$B$6</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <v>716</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.14000000000000001</v>
+        <v>920.02368000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5/$D$6</f>
+        <v>0.16336638584616148</v>
       </c>
       <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F5/$F$6</f>
+        <v>4.1730421477256921E-4</v>
       </c>
       <c r="H5">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
+        <v>2.2915549722626207</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6/$B$6</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5631.6584053366159</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6/$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>43134</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6/$F$6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.95874758134596139</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B7/$B$11</f>
+        <v>0.43068954232020873</v>
+      </c>
+      <c r="D7">
+        <v>2327.7748591161649</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D7/$D$11</f>
+        <v>0.42946650240804385</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7/$F$11</f>
+        <v>2.6456359604918362E-3</v>
+      </c>
+      <c r="H7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.88628796914876995</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B8/$B$11</f>
+        <v>0.39813916324118503</v>
+      </c>
+      <c r="D8">
+        <v>1539.6550931376451</v>
+      </c>
+      <c r="E8" s="2">
+        <f>D8/$D$11</f>
+        <v>0.28406110031432275</v>
+      </c>
+      <c r="F8">
+        <v>3634</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8/$F$11</f>
+        <v>9.1564200765974602E-2</v>
+      </c>
+      <c r="H8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.38104028171842302</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9/$B$11</f>
+        <v>0.1711712944386061</v>
+      </c>
+      <c r="D9">
+        <v>684.59838858064245</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9/$D$11</f>
+        <v>0.12630606192282065</v>
+      </c>
+      <c r="F9">
+        <v>35933</v>
+      </c>
+      <c r="G9" s="2">
+        <f>F9/$F$11</f>
+        <v>0.90538701874622052</v>
+      </c>
+      <c r="H9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C10" s="2">
+        <f>B10/$B$11</f>
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5205</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>30450</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.77</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="D8">
-        <v>2337</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="F8">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="H8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.87</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D9">
-        <v>1463</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F9">
-        <v>3780</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.36</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.18</v>
-      </c>
       <c r="D10">
-        <v>587</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.12</v>
+        <v>868.12630699999977</v>
+      </c>
+      <c r="E10" s="2">
+        <f>D10/$D$11</f>
+        <v>0.16016633535481273</v>
       </c>
       <c r="F10">
-        <v>23830</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.86</v>
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <f>F10/$F$11</f>
+        <v>4.0314452731304173E-4</v>
       </c>
       <c r="H10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
+      <c r="B11" s="1">
+        <v>2.2260758322131546</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$11</f>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>569</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.11</v>
+        <v>5420.1546478344526</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11/$D$11</f>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1E-4</v>
+        <v>39688</v>
+      </c>
+      <c r="G11" s="2">
+        <f>F11/$F$11</f>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1E-3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9.8999999999999999E-4</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="H12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>4966</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>27720</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
